--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\Studia\Studia magisterskie\Praca magisterska\Time_series_forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA17C2-5C0C-41ED-AF65-4067C7531DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03E912-953B-4F4A-A59C-59535BA060A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A0C4E5-89E2-430C-BD6E-CABE779DA7B9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>AR</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Rodzaje</t>
+  </si>
+  <si>
+    <t>Metoda porównawcza</t>
+  </si>
+  <si>
+    <t>Średnia algebraiczna</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E472CA-B2F9-42BE-85FC-E9C94EA58865}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
@@ -614,7 +626,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -637,7 +649,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -658,7 +670,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,7 +691,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -700,7 +712,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,7 +733,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,7 +754,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -765,7 +777,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -786,7 +798,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -807,7 +819,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -828,7 +840,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -849,7 +861,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -870,7 +882,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -893,7 +905,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -914,7 +926,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -935,7 +947,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -956,7 +968,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -974,6 +986,29 @@
       </c>
       <c r="G18" s="3">
         <v>2999.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1372910</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3136554798006</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1771032</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44.71</v>
       </c>
     </row>
   </sheetData>
@@ -988,15 +1023,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8408E1-4CFD-437F-913A-EB3030F82554}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
@@ -1390,6 +1425,29 @@
         <v>66732.78</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>100237</v>
+      </c>
+      <c r="D19" s="5">
+        <v>27394968030</v>
+      </c>
+      <c r="E19" s="5">
+        <v>165514</v>
+      </c>
+      <c r="F19" s="3">
+        <v>20.14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6887.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
